--- a/Paper/开源mtar_longnameFineTAR/ShiftChunk/Overall/OffsetChunk_MaxVersion.xlsx
+++ b/Paper/开源mtar_longnameFineTAR/ShiftChunk/Overall/OffsetChunk_MaxVersion.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
     <t>gcc</t>
   </si>
   <si>
-    <t>coreutils</t>
+    <t>linux</t>
   </si>
   <si>
     <t>WEB</t>
@@ -1016,10 +1015,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:D271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="C1" sqref="C1:C271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1051,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.00296736</v>
+        <v>0.000939581</v>
       </c>
       <c r="D2" s="2">
         <v>0.00711765</v>
@@ -1065,7 +1064,7 @@
         <v>0.0328428</v>
       </c>
       <c r="C3">
-        <v>0.0199336</v>
+        <v>0.169522</v>
       </c>
       <c r="D3" s="2">
         <v>0.0155117</v>
@@ -1079,7 +1078,7 @@
         <v>0.0249886</v>
       </c>
       <c r="C4">
-        <v>0.0514469</v>
+        <v>0.162127</v>
       </c>
       <c r="D4" s="2">
         <v>0.0218929</v>
@@ -1093,7 +1092,7 @@
         <v>0.0325357</v>
       </c>
       <c r="C5">
-        <v>0.116239</v>
+        <v>0.159472</v>
       </c>
       <c r="D5" s="2">
         <v>0.139542</v>
@@ -1107,7 +1106,7 @@
         <v>0.0368538</v>
       </c>
       <c r="C6">
-        <v>0.154334</v>
+        <v>0.15363</v>
       </c>
       <c r="D6" s="2">
         <v>0.140803</v>
@@ -1121,7 +1120,7 @@
         <v>0.0387205</v>
       </c>
       <c r="C7">
-        <v>0.158014</v>
+        <v>0.148375</v>
       </c>
       <c r="D7" s="2">
         <v>0.141749</v>
@@ -1135,7 +1134,7 @@
         <v>0.0464708</v>
       </c>
       <c r="C8">
-        <v>0.181772</v>
+        <v>0.226779</v>
       </c>
       <c r="D8" s="2">
         <v>0.142386</v>
@@ -1149,7 +1148,7 @@
         <v>0.0440596</v>
       </c>
       <c r="C9">
-        <v>0.128075</v>
+        <v>0.216102</v>
       </c>
       <c r="D9" s="2">
         <v>0.143687</v>
@@ -1163,7 +1162,7 @@
         <v>0.0509957</v>
       </c>
       <c r="C10">
-        <v>0.126352</v>
+        <v>0.210559</v>
       </c>
       <c r="D10" s="2">
         <v>0.144776</v>
@@ -1177,7 +1176,7 @@
         <v>0.0544184</v>
       </c>
       <c r="C11">
-        <v>0.131885</v>
+        <v>0.205126</v>
       </c>
       <c r="D11" s="2">
         <v>0.145634</v>
@@ -1191,7 +1190,7 @@
         <v>0.0571371</v>
       </c>
       <c r="C12">
-        <v>0.14404</v>
+        <v>0.19886</v>
       </c>
       <c r="D12" s="2">
         <v>0.146561</v>
@@ -1205,7 +1204,7 @@
         <v>0.0587488</v>
       </c>
       <c r="C13">
-        <v>0.138872</v>
+        <v>0.194111</v>
       </c>
       <c r="D13" s="2">
         <v>0.147107</v>
@@ -1219,7 +1218,7 @@
         <v>0.0552275</v>
       </c>
       <c r="C14">
-        <v>0.136222</v>
+        <v>0.189441</v>
       </c>
       <c r="D14" s="2">
         <v>0.147156</v>
@@ -1233,7 +1232,7 @@
         <v>0.0590218</v>
       </c>
       <c r="C15">
-        <v>0.13527</v>
+        <v>0.185175</v>
       </c>
       <c r="D15" s="2">
         <v>0.148172</v>
@@ -1247,7 +1246,7 @@
         <v>0.0605365</v>
       </c>
       <c r="C16">
-        <v>0.134141</v>
+        <v>0.231664</v>
       </c>
       <c r="D16" s="2">
         <v>0.149179</v>
@@ -1261,7 +1260,7 @@
         <v>0.0630283</v>
       </c>
       <c r="C17">
-        <v>0.130862</v>
+        <v>0.223494</v>
       </c>
       <c r="D17" s="2">
         <v>0.149915</v>
@@ -1275,7 +1274,7 @@
         <v>0.0664667</v>
       </c>
       <c r="C18">
-        <v>0.125016</v>
+        <v>0.218632</v>
       </c>
       <c r="D18" s="2">
         <v>0.150844</v>
@@ -1289,7 +1288,7 @@
         <v>0.0679417</v>
       </c>
       <c r="C19">
-        <v>0.12832</v>
+        <v>0.214583</v>
       </c>
       <c r="D19" s="2">
         <v>0.151482</v>
@@ -1303,7 +1302,7 @@
         <v>0.0673672</v>
       </c>
       <c r="C20">
-        <v>0.135601</v>
+        <v>0.210551</v>
       </c>
       <c r="D20" s="2">
         <v>0.152199</v>
@@ -1317,7 +1316,7 @@
         <v>0.0686904</v>
       </c>
       <c r="C21">
-        <v>0.131323</v>
+        <v>0.206854</v>
       </c>
       <c r="D21" s="2">
         <v>0.152802</v>
@@ -1331,7 +1330,7 @@
         <v>0.069846</v>
       </c>
       <c r="C22">
-        <v>0.136061</v>
+        <v>0.241506</v>
       </c>
       <c r="D22" s="2">
         <v>0.153755</v>
@@ -1345,7 +1344,7 @@
         <v>0.0700957</v>
       </c>
       <c r="C23">
-        <v>0.139309</v>
+        <v>0.231248</v>
       </c>
       <c r="D23" s="2">
         <v>0.154092</v>
@@ -1359,7 +1358,7 @@
         <v>0.0710825</v>
       </c>
       <c r="C24">
-        <v>0.140929</v>
+        <v>0.227902</v>
       </c>
       <c r="D24" s="2">
         <v>0.154355</v>
@@ -1373,7 +1372,7 @@
         <v>0.0711053</v>
       </c>
       <c r="C25">
-        <v>0.144426</v>
+        <v>0.224396</v>
       </c>
       <c r="D25" s="2">
         <v>0.154513</v>
@@ -1387,7 +1386,7 @@
         <v>0.071329</v>
       </c>
       <c r="C26">
-        <v>0.147781</v>
+        <v>0.220955</v>
       </c>
       <c r="D26" s="2">
         <v>0.154693</v>
@@ -1401,7 +1400,7 @@
         <v>0.0656573</v>
       </c>
       <c r="C27">
-        <v>0.152282</v>
+        <v>0.217429</v>
       </c>
       <c r="D27" s="2">
         <v>0.154859</v>
@@ -1415,7 +1414,7 @@
         <v>0.0671897</v>
       </c>
       <c r="C28">
-        <v>0.153419</v>
+        <v>0.214126</v>
       </c>
       <c r="D28" s="2">
         <v>0.155067</v>
@@ -1429,7 +1428,7 @@
         <v>0.068274</v>
       </c>
       <c r="C29">
-        <v>0.154292</v>
+        <v>0.210986</v>
       </c>
       <c r="D29" s="2">
         <v>0.155317</v>
@@ -1442,6 +1441,9 @@
       <c r="B30" s="2">
         <v>0.0687895</v>
       </c>
+      <c r="C30">
+        <v>0.241267</v>
+      </c>
       <c r="D30" s="2">
         <v>0.155627</v>
       </c>
@@ -1453,6 +1455,9 @@
       <c r="B31" s="2">
         <v>0.0697156</v>
       </c>
+      <c r="C31">
+        <v>0.233123</v>
+      </c>
       <c r="D31" s="2">
         <v>0.155831</v>
       </c>
@@ -1464,6 +1469,9 @@
       <c r="B32" s="2">
         <v>0.0707218</v>
       </c>
+      <c r="C32">
+        <v>0.229511</v>
+      </c>
       <c r="D32" s="2">
         <v>0.156058</v>
       </c>
@@ -1475,6 +1483,9 @@
       <c r="B33" s="2">
         <v>0.0719344</v>
       </c>
+      <c r="C33">
+        <v>0.22678</v>
+      </c>
       <c r="D33" s="2">
         <v>0.156082</v>
       </c>
@@ -1486,6 +1497,9 @@
       <c r="B34" s="2">
         <v>0.0736817</v>
       </c>
+      <c r="C34">
+        <v>0.224062</v>
+      </c>
       <c r="D34" s="2">
         <v>0.155867</v>
       </c>
@@ -1497,6 +1511,9 @@
       <c r="B35" s="2">
         <v>0.0753863</v>
       </c>
+      <c r="C35">
+        <v>0.221329</v>
+      </c>
       <c r="D35" s="2">
         <v>0.156515</v>
       </c>
@@ -1508,6 +1525,9 @@
       <c r="B36" s="2">
         <v>0.0767224</v>
       </c>
+      <c r="C36">
+        <v>0.218671</v>
+      </c>
       <c r="D36" s="2">
         <v>0.158073</v>
       </c>
@@ -1519,6 +1539,9 @@
       <c r="B37" s="2">
         <v>0.0796732</v>
       </c>
+      <c r="C37">
+        <v>0.244983</v>
+      </c>
       <c r="D37" s="2">
         <v>0.160051</v>
       </c>
@@ -1530,6 +1553,9 @@
       <c r="B38" s="2">
         <v>0.0805238</v>
       </c>
+      <c r="C38">
+        <v>0.238218</v>
+      </c>
       <c r="D38" s="2">
         <v>0.162168</v>
       </c>
@@ -1541,6 +1567,9 @@
       <c r="B39" s="2">
         <v>0.0754159</v>
       </c>
+      <c r="C39">
+        <v>0.235843</v>
+      </c>
       <c r="D39" s="2">
         <v>0.164272</v>
       </c>
@@ -1552,6 +1581,9 @@
       <c r="B40" s="2">
         <v>0.0755784</v>
       </c>
+      <c r="C40">
+        <v>0.233266</v>
+      </c>
       <c r="D40" s="2">
         <v>0.166386</v>
       </c>
@@ -1563,6 +1595,9 @@
       <c r="B41" s="2">
         <v>0.0769277</v>
       </c>
+      <c r="C41">
+        <v>0.230508</v>
+      </c>
       <c r="D41" s="2">
         <v>0.168341</v>
       </c>
@@ -1574,6 +1609,9 @@
       <c r="B42" s="2">
         <v>0.0825604</v>
       </c>
+      <c r="C42">
+        <v>0.228085</v>
+      </c>
       <c r="D42" s="2">
         <v>0.170603</v>
       </c>
@@ -1585,6 +1623,9 @@
       <c r="B43" s="2">
         <v>0.0816376</v>
       </c>
+      <c r="C43">
+        <v>0.225742</v>
+      </c>
       <c r="D43" s="2">
         <v>0.172714</v>
       </c>
@@ -1596,6 +1637,9 @@
       <c r="B44" s="2">
         <v>0.0819775</v>
       </c>
+      <c r="C44">
+        <v>0.24717</v>
+      </c>
       <c r="D44" s="2">
         <v>0.174361</v>
       </c>
@@ -1607,6 +1651,9 @@
       <c r="B45" s="2">
         <v>0.0811969</v>
       </c>
+      <c r="C45">
+        <v>0.240689</v>
+      </c>
       <c r="D45" s="2">
         <v>0.176494</v>
       </c>
@@ -1618,6 +1665,9 @@
       <c r="B46" s="2">
         <v>0.0811987</v>
       </c>
+      <c r="C46">
+        <v>0.238362</v>
+      </c>
       <c r="D46" s="2">
         <v>0.177773</v>
       </c>
@@ -1629,6 +1679,9 @@
       <c r="B47" s="2">
         <v>0.0817588</v>
       </c>
+      <c r="C47">
+        <v>0.235965</v>
+      </c>
       <c r="D47" s="2">
         <v>0.178792</v>
       </c>
@@ -1640,6 +1693,9 @@
       <c r="B48" s="2">
         <v>0.0818807</v>
       </c>
+      <c r="C48">
+        <v>0.233806</v>
+      </c>
       <c r="D48" s="2">
         <v>0.17984</v>
       </c>
@@ -1651,6 +1707,9 @@
       <c r="B49" s="2">
         <v>0.0818885</v>
       </c>
+      <c r="C49">
+        <v>0.231437</v>
+      </c>
       <c r="D49" s="2">
         <v>0.181069</v>
       </c>
@@ -1662,6 +1721,9 @@
       <c r="B50" s="2">
         <v>0.0822022</v>
       </c>
+      <c r="C50">
+        <v>0.229354</v>
+      </c>
       <c r="D50" s="2">
         <v>0.182381</v>
       </c>
@@ -1673,6 +1735,9 @@
       <c r="B51" s="2">
         <v>0.0822492</v>
       </c>
+      <c r="C51">
+        <v>0.227436</v>
+      </c>
       <c r="D51" s="2">
         <v>0.183463</v>
       </c>
@@ -1684,6 +1749,9 @@
       <c r="B52" s="2">
         <v>0.0822432</v>
       </c>
+      <c r="C52">
+        <v>0.251117</v>
+      </c>
       <c r="D52" s="2">
         <v>0.185101</v>
       </c>
@@ -1695,6 +1763,9 @@
       <c r="B53" s="2">
         <v>0.0816259</v>
       </c>
+      <c r="C53">
+        <v>0.245258</v>
+      </c>
       <c r="D53" s="2">
         <v>0.185608</v>
       </c>
@@ -1706,6 +1777,9 @@
       <c r="B54" s="2">
         <v>0.0855819</v>
       </c>
+      <c r="C54">
+        <v>0.242282</v>
+      </c>
       <c r="D54" s="2">
         <v>0.185825</v>
       </c>
@@ -1717,6 +1791,9 @@
       <c r="B55" s="2">
         <v>0.0857986</v>
       </c>
+      <c r="C55">
+        <v>0.240201</v>
+      </c>
       <c r="D55" s="2">
         <v>0.18569</v>
       </c>
@@ -1728,6 +1805,9 @@
       <c r="B56" s="2">
         <v>0.0850984</v>
       </c>
+      <c r="C56">
+        <v>0.238258</v>
+      </c>
       <c r="D56" s="2">
         <v>0.185485</v>
       </c>
@@ -1739,6 +1819,9 @@
       <c r="B57" s="2">
         <v>0.0851907</v>
       </c>
+      <c r="C57">
+        <v>0.236553</v>
+      </c>
       <c r="D57" s="2">
         <v>0.185059</v>
       </c>
@@ -1750,6 +1833,9 @@
       <c r="B58" s="2">
         <v>0.0853892</v>
       </c>
+      <c r="C58">
+        <v>0.234627</v>
+      </c>
       <c r="D58" s="2">
         <v>0.184721</v>
       </c>
@@ -1761,6 +1847,9 @@
       <c r="B59" s="2">
         <v>0.0857016</v>
       </c>
+      <c r="C59">
+        <v>0.252517</v>
+      </c>
       <c r="D59" s="2">
         <v>0.184448</v>
       </c>
@@ -1772,6 +1861,9 @@
       <c r="B60" s="2">
         <v>0.085387</v>
       </c>
+      <c r="C60">
+        <v>0.2485</v>
+      </c>
       <c r="D60" s="2">
         <v>0.184194</v>
       </c>
@@ -1783,6 +1875,9 @@
       <c r="B61" s="2">
         <v>0.0849038</v>
       </c>
+      <c r="C61">
+        <v>0.246474</v>
+      </c>
       <c r="D61" s="2">
         <v>0.184153</v>
       </c>
@@ -1794,6 +1889,9 @@
       <c r="B62" s="2">
         <v>0.0882308</v>
       </c>
+      <c r="C62">
+        <v>0.244574</v>
+      </c>
       <c r="D62" s="2">
         <v>0.184036</v>
       </c>
@@ -1805,6 +1903,9 @@
       <c r="B63" s="2">
         <v>0.0882115</v>
       </c>
+      <c r="C63">
+        <v>0.242749</v>
+      </c>
       <c r="D63" s="2">
         <v>0.183951</v>
       </c>
@@ -1816,6 +1917,9 @@
       <c r="B64" s="2">
         <v>0.088235</v>
       </c>
+      <c r="C64">
+        <v>0.24096</v>
+      </c>
       <c r="D64" s="2">
         <v>0.183852</v>
       </c>
@@ -1827,6 +1931,9 @@
       <c r="B65" s="2">
         <v>0.0882823</v>
       </c>
+      <c r="C65">
+        <v>0.239089</v>
+      </c>
       <c r="D65" s="2">
         <v>0.183592</v>
       </c>
@@ -1838,6 +1945,9 @@
       <c r="B66" s="2">
         <v>0.0880723</v>
       </c>
+      <c r="C66">
+        <v>0.237371</v>
+      </c>
       <c r="D66" s="2">
         <v>0.183399</v>
       </c>
@@ -1849,6 +1959,9 @@
       <c r="B67" s="2">
         <v>0.0902819</v>
       </c>
+      <c r="C67">
+        <v>0.250563</v>
+      </c>
       <c r="D67" s="2">
         <v>0.183113</v>
       </c>
@@ -1860,6 +1973,9 @@
       <c r="B68" s="2">
         <v>0.0897699</v>
       </c>
+      <c r="C68">
+        <v>0.246617</v>
+      </c>
       <c r="D68" s="2">
         <v>0.182911</v>
       </c>
@@ -1871,6 +1987,9 @@
       <c r="B69" s="2">
         <v>0.0892936</v>
       </c>
+      <c r="C69">
+        <v>0.244753</v>
+      </c>
       <c r="D69" s="2">
         <v>0.182696</v>
       </c>
@@ -1882,6 +2001,9 @@
       <c r="B70" s="2">
         <v>0.0891046</v>
       </c>
+      <c r="C70">
+        <v>0.243014</v>
+      </c>
       <c r="D70" s="2">
         <v>0.182376</v>
       </c>
@@ -1893,6 +2015,9 @@
       <c r="B71" s="2">
         <v>0.0892041</v>
       </c>
+      <c r="C71">
+        <v>0.241306</v>
+      </c>
       <c r="D71" s="2">
         <v>0.182052</v>
       </c>
@@ -1904,6 +2029,9 @@
       <c r="B72" s="2">
         <v>0.0921334</v>
       </c>
+      <c r="C72">
+        <v>0.23966</v>
+      </c>
       <c r="D72" s="2">
         <v>0.181863</v>
       </c>
@@ -1915,6 +2043,9 @@
       <c r="B73" s="2">
         <v>0.0919249</v>
       </c>
+      <c r="C73">
+        <v>0.238073</v>
+      </c>
       <c r="D73" s="2">
         <v>0.181766</v>
       </c>
@@ -1926,6 +2057,9 @@
       <c r="B74" s="2">
         <v>0.0915169</v>
       </c>
+      <c r="C74">
+        <v>0.236513</v>
+      </c>
       <c r="D74" s="2">
         <v>0.181573</v>
       </c>
@@ -1937,6 +2071,9 @@
       <c r="B75" s="2">
         <v>0.091571</v>
       </c>
+      <c r="C75">
+        <v>0.248982</v>
+      </c>
       <c r="D75" s="2">
         <v>0.181361</v>
       </c>
@@ -1948,6 +2085,9 @@
       <c r="B76" s="2">
         <v>0.0914042</v>
       </c>
+      <c r="C76">
+        <v>0.245965</v>
+      </c>
       <c r="D76" s="2">
         <v>0.181283</v>
       </c>
@@ -1959,6 +2099,9 @@
       <c r="B77" s="2">
         <v>0.0922104</v>
       </c>
+      <c r="C77">
+        <v>0.243308</v>
+      </c>
       <c r="D77" s="2">
         <v>0.181148</v>
       </c>
@@ -1970,6 +2113,9 @@
       <c r="B78" s="2">
         <v>0.0920843</v>
       </c>
+      <c r="C78">
+        <v>0.23902</v>
+      </c>
       <c r="D78" s="2">
         <v>0.180882</v>
       </c>
@@ -1981,6 +2127,9 @@
       <c r="B79" s="2">
         <v>0.0920245</v>
       </c>
+      <c r="C79">
+        <v>0.235126</v>
+      </c>
       <c r="D79" s="2">
         <v>0.180751</v>
       </c>
@@ -1992,6 +2141,9 @@
       <c r="B80" s="2">
         <v>0.0921951</v>
       </c>
+      <c r="C80">
+        <v>0.231827</v>
+      </c>
       <c r="D80" s="2">
         <v>0.180615</v>
       </c>
@@ -2003,6 +2155,9 @@
       <c r="B81" s="2">
         <v>0.0919496</v>
       </c>
+      <c r="C81">
+        <v>0.228551</v>
+      </c>
       <c r="D81" s="2">
         <v>0.18052</v>
       </c>
@@ -2014,6 +2169,9 @@
       <c r="B82" s="2">
         <v>0.0916987</v>
       </c>
+      <c r="C82">
+        <v>0.225622</v>
+      </c>
       <c r="D82" s="2">
         <v>0.18033</v>
       </c>
@@ -2025,6 +2183,9 @@
       <c r="B83" s="2">
         <v>0.0922854</v>
       </c>
+      <c r="C83">
+        <v>0.222037</v>
+      </c>
       <c r="D83" s="2">
         <v>0.180081</v>
       </c>
@@ -2036,6 +2197,9 @@
       <c r="B84" s="2">
         <v>0.092242</v>
       </c>
+      <c r="C84">
+        <v>0.218948</v>
+      </c>
       <c r="D84" s="2">
         <v>0.179778</v>
       </c>
@@ -2047,6 +2211,9 @@
       <c r="B85" s="2">
         <v>0.0921659</v>
       </c>
+      <c r="C85">
+        <v>0.216394</v>
+      </c>
       <c r="D85" s="2">
         <v>0.179624</v>
       </c>
@@ -2058,6 +2225,9 @@
       <c r="B86" s="2">
         <v>0.0922677</v>
       </c>
+      <c r="C86">
+        <v>0.213463</v>
+      </c>
       <c r="D86" s="2">
         <v>0.179448</v>
       </c>
@@ -2069,6 +2239,9 @@
       <c r="B87" s="2">
         <v>0.0923024</v>
       </c>
+      <c r="C87">
+        <v>0.210853</v>
+      </c>
       <c r="D87" s="2">
         <v>0.179162</v>
       </c>
@@ -2080,6 +2253,9 @@
       <c r="B88" s="2">
         <v>0.0924663</v>
       </c>
+      <c r="C88">
+        <v>0.209087</v>
+      </c>
       <c r="D88" s="2">
         <v>0.17893</v>
       </c>
@@ -2091,6 +2267,9 @@
       <c r="B89" s="2">
         <v>0.0918826</v>
       </c>
+      <c r="C89">
+        <v>0.207042</v>
+      </c>
       <c r="D89" s="2">
         <v>0.178829</v>
       </c>
@@ -2102,6 +2281,9 @@
       <c r="B90" s="2">
         <v>0.0915159</v>
       </c>
+      <c r="C90">
+        <v>0.205532</v>
+      </c>
       <c r="D90" s="2">
         <v>0.178755</v>
       </c>
@@ -2113,6 +2295,9 @@
       <c r="B91" s="2">
         <v>0.0915069</v>
       </c>
+      <c r="C91">
+        <v>0.203346</v>
+      </c>
       <c r="D91" s="2">
         <v>0.178216</v>
       </c>
@@ -2124,6 +2309,9 @@
       <c r="B92" s="2">
         <v>0.0918218</v>
       </c>
+      <c r="C92">
+        <v>0.202009</v>
+      </c>
       <c r="D92" s="2">
         <v>0.178103</v>
       </c>
@@ -2135,6 +2323,9 @@
       <c r="B93" s="2">
         <v>0.0923064</v>
       </c>
+      <c r="C93">
+        <v>0.200472</v>
+      </c>
       <c r="D93" s="2">
         <v>0.177968</v>
       </c>
@@ -2146,6 +2337,9 @@
       <c r="B94" s="2">
         <v>0.0918905</v>
       </c>
+      <c r="C94">
+        <v>0.199587</v>
+      </c>
       <c r="D94" s="2">
         <v>0.177791</v>
       </c>
@@ -2157,6 +2351,9 @@
       <c r="B95" s="2">
         <v>0.0915344</v>
       </c>
+      <c r="C95">
+        <v>0.198826</v>
+      </c>
       <c r="D95" s="2">
         <v>0.177594</v>
       </c>
@@ -2168,6 +2365,9 @@
       <c r="B96" s="2">
         <v>0.091644</v>
       </c>
+      <c r="C96">
+        <v>0.197947</v>
+      </c>
       <c r="D96" s="2">
         <v>0.177525</v>
       </c>
@@ -2179,6 +2379,9 @@
       <c r="B97" s="2">
         <v>0.09199</v>
       </c>
+      <c r="C97">
+        <v>0.196831</v>
+      </c>
       <c r="D97" s="2">
         <v>0.177347</v>
       </c>
@@ -2190,6 +2393,9 @@
       <c r="B98" s="2">
         <v>0.0929468</v>
       </c>
+      <c r="C98">
+        <v>0.19597</v>
+      </c>
       <c r="D98" s="2">
         <v>0.177161</v>
       </c>
@@ -2201,6 +2407,9 @@
       <c r="B99" s="2">
         <v>0.09293</v>
       </c>
+      <c r="C99">
+        <v>0.195082</v>
+      </c>
       <c r="D99" s="2">
         <v>0.177123</v>
       </c>
@@ -2212,6 +2421,9 @@
       <c r="B100" s="2">
         <v>0.092939</v>
       </c>
+      <c r="C100">
+        <v>0.1942</v>
+      </c>
       <c r="D100" s="2">
         <v>0.177104</v>
       </c>
@@ -2223,6 +2435,9 @@
       <c r="B101" s="2">
         <v>0.0934256</v>
       </c>
+      <c r="C101">
+        <v>0.193763</v>
+      </c>
       <c r="D101" s="2">
         <v>0.176922</v>
       </c>
@@ -2231,6 +2446,9 @@
       <c r="B102" s="2">
         <v>0.0938305</v>
       </c>
+      <c r="C102">
+        <v>0.192603</v>
+      </c>
       <c r="D102" s="2">
         <v>0.176845</v>
       </c>
@@ -2239,110 +2457,900 @@
       <c r="B103" s="2">
         <v>0.0942741</v>
       </c>
+      <c r="C103">
+        <v>0.191837</v>
+      </c>
       <c r="D103" s="2">
         <v>0.176868</v>
       </c>
     </row>
-    <row r="104" spans="2:2">
+    <row r="104" spans="2:3">
       <c r="B104" s="2">
         <v>0.094081</v>
       </c>
-    </row>
-    <row r="105" spans="2:2">
+      <c r="C104">
+        <v>0.191049</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
       <c r="B105" s="2">
         <v>0.0940037</v>
       </c>
-    </row>
-    <row r="106" spans="2:2">
+      <c r="C105">
+        <v>0.190268</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3">
       <c r="B106" s="2">
         <v>0.0945789</v>
       </c>
-    </row>
-    <row r="107" spans="2:2">
+      <c r="C106">
+        <v>0.189488</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3">
       <c r="B107" s="2">
         <v>0.0947492</v>
       </c>
-    </row>
-    <row r="108" spans="2:2">
+      <c r="C107">
+        <v>0.188868</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3">
       <c r="B108" s="2">
         <v>0.0949355</v>
       </c>
-    </row>
-    <row r="109" spans="2:2">
+      <c r="C108">
+        <v>0.188351</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3">
       <c r="B109" s="2">
         <v>0.0947923</v>
       </c>
-    </row>
-    <row r="110" spans="2:2">
+      <c r="C109">
+        <v>0.187673</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3">
       <c r="B110" s="2">
         <v>0.0950653</v>
       </c>
-    </row>
-    <row r="111" spans="2:2">
+      <c r="C110">
+        <v>0.187095</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3">
       <c r="B111" s="2">
         <v>0.0955316</v>
       </c>
-    </row>
-    <row r="112" spans="2:2">
+      <c r="C111">
+        <v>0.186534</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3">
       <c r="B112" s="2">
         <v>0.0964511</v>
       </c>
-    </row>
-    <row r="113" spans="2:2">
+      <c r="C112">
+        <v>0.186076</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3">
       <c r="B113" s="2">
         <v>0.096001</v>
       </c>
-    </row>
-    <row r="114" spans="2:2">
+      <c r="C113">
+        <v>0.185461</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3">
       <c r="B114" s="2">
         <v>0.0963518</v>
       </c>
-    </row>
-    <row r="115" spans="2:2">
+      <c r="C114">
+        <v>0.185083</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3">
       <c r="B115" s="2">
         <v>0.0970698</v>
       </c>
-    </row>
-    <row r="116" spans="2:2">
+      <c r="C115">
+        <v>0.184773</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3">
       <c r="B116" s="2">
         <v>0.0968917</v>
       </c>
-    </row>
-    <row r="117" spans="2:2">
+      <c r="C116">
+        <v>0.184135</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3">
       <c r="B117" s="2">
         <v>0.0970497</v>
       </c>
-    </row>
-    <row r="118" spans="2:2">
+      <c r="C117">
+        <v>0.183781</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3">
       <c r="B118" s="2">
         <v>0.0976637</v>
+      </c>
+      <c r="C118">
+        <v>0.183456</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3">
+      <c r="C119">
+        <v>0.183208</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3">
+      <c r="C120">
+        <v>0.182883</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3">
+      <c r="C121">
+        <v>0.18248</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3">
+      <c r="C122">
+        <v>0.182224</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123">
+        <v>0.181928</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3">
+      <c r="C124">
+        <v>0.181681</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3">
+      <c r="C125">
+        <v>0.181475</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3">
+      <c r="C126">
+        <v>0.180606</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3">
+      <c r="C127">
+        <v>0.180116</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3">
+      <c r="C128">
+        <v>0.180465</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3">
+      <c r="C129">
+        <v>0.179983</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3">
+      <c r="C130">
+        <v>0.179799</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3">
+      <c r="C131">
+        <v>0.179559</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3">
+      <c r="C132">
+        <v>0.179322</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3">
+      <c r="C133">
+        <v>0.179208</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3">
+      <c r="C134">
+        <v>0.179022</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3">
+      <c r="C135">
+        <v>0.178902</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3">
+      <c r="C136">
+        <v>0.17879</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3">
+      <c r="C137">
+        <v>0.178239</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3">
+      <c r="C138">
+        <v>0.177921</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3">
+      <c r="C139">
+        <v>0.177805</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3">
+      <c r="C140">
+        <v>0.177775</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3">
+      <c r="C141">
+        <v>0.177675</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3">
+      <c r="C142">
+        <v>0.17772</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3">
+      <c r="C143">
+        <v>0.177829</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3">
+      <c r="C144">
+        <v>0.18684</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3">
+      <c r="C145">
+        <v>0.185884</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3">
+      <c r="C146">
+        <v>0.18516</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3">
+      <c r="C147">
+        <v>0.184416</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3">
+      <c r="C148">
+        <v>0.183646</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3">
+      <c r="C149">
+        <v>0.18291</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3">
+      <c r="C150">
+        <v>0.18218</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3">
+      <c r="C151">
+        <v>0.18145</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3">
+      <c r="C152">
+        <v>0.180722</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3">
+      <c r="C153">
+        <v>0.179799</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3">
+      <c r="C154">
+        <v>0.17909</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3">
+      <c r="C155">
+        <v>0.178384</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3">
+      <c r="C156">
+        <v>0.177701</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3">
+      <c r="C157">
+        <v>0.177005</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3">
+      <c r="C158">
+        <v>0.176326</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3">
+      <c r="C159">
+        <v>0.175662</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3">
+      <c r="C160">
+        <v>0.174987</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3">
+      <c r="C161">
+        <v>0.174425</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3">
+      <c r="C162">
+        <v>0.173756</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3">
+      <c r="C163">
+        <v>0.173098</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3">
+      <c r="C164">
+        <v>0.172457</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3">
+      <c r="C165">
+        <v>0.171821</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3">
+      <c r="C166">
+        <v>0.171182</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3">
+      <c r="C167">
+        <v>0.170559</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3">
+      <c r="C168">
+        <v>0.169931</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3">
+      <c r="C169">
+        <v>0.169302</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3">
+      <c r="C170">
+        <v>0.16859</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3">
+      <c r="C171">
+        <v>0.167988</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3">
+      <c r="C172">
+        <v>0.167375</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3">
+      <c r="C173">
+        <v>0.166778</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3">
+      <c r="C174">
+        <v>0.166176</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3">
+      <c r="C175">
+        <v>0.165575</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3">
+      <c r="C176">
+        <v>0.164982</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3">
+      <c r="C177">
+        <v>0.164389</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3">
+      <c r="C178">
+        <v>0.163771</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3">
+      <c r="C179">
+        <v>0.163203</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3">
+      <c r="C180">
+        <v>0.162628</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3">
+      <c r="C181">
+        <v>0.162051</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3">
+      <c r="C182">
+        <v>0.16149</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3">
+      <c r="C183">
+        <v>0.160925</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3">
+      <c r="C184">
+        <v>0.16037</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3">
+      <c r="C185">
+        <v>0.159811</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3">
+      <c r="C186">
+        <v>0.159357</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3">
+      <c r="C187">
+        <v>0.158815</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3">
+      <c r="C188">
+        <v>0.158272</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3">
+      <c r="C189">
+        <v>0.157729</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3">
+      <c r="C190">
+        <v>0.157209</v>
+      </c>
+    </row>
+    <row r="191" spans="3:3">
+      <c r="C191">
+        <v>0.156678</v>
+      </c>
+    </row>
+    <row r="192" spans="3:3">
+      <c r="C192">
+        <v>0.156148</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3">
+      <c r="C193">
+        <v>0.155619</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3">
+      <c r="C194">
+        <v>0.155247</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3">
+      <c r="C195">
+        <v>0.154737</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3">
+      <c r="C196">
+        <v>0.154221</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3">
+      <c r="C197">
+        <v>0.153709</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3">
+      <c r="C198">
+        <v>0.153219</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3">
+      <c r="C199">
+        <v>0.152715</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3">
+      <c r="C200">
+        <v>0.152213</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3">
+      <c r="C201">
+        <v>0.151717</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3">
+      <c r="C202">
+        <v>0.151223</v>
+      </c>
+    </row>
+    <row r="203" spans="3:3">
+      <c r="C203">
+        <v>0.150964</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3">
+      <c r="C204">
+        <v>0.150472</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3">
+      <c r="C205">
+        <v>0.149994</v>
+      </c>
+    </row>
+    <row r="206" spans="3:3">
+      <c r="C206">
+        <v>0.149516</v>
+      </c>
+    </row>
+    <row r="207" spans="3:3">
+      <c r="C207">
+        <v>0.149041</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3">
+      <c r="C208">
+        <v>0.148569</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3">
+      <c r="C209">
+        <v>0.148102</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3">
+      <c r="C210">
+        <v>0.147645</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3">
+      <c r="C211">
+        <v>0.147174</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3">
+      <c r="C212">
+        <v>0.146936</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3">
+      <c r="C213">
+        <v>0.146474</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3">
+      <c r="C214">
+        <v>0.146031</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3">
+      <c r="C215">
+        <v>0.14558</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3">
+      <c r="C216">
+        <v>0.145142</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3">
+      <c r="C217">
+        <v>0.144698</v>
+      </c>
+    </row>
+    <row r="218" spans="3:3">
+      <c r="C218">
+        <v>0.144251</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3">
+      <c r="C219">
+        <v>0.143805</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3">
+      <c r="C220">
+        <v>0.143526</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3">
+      <c r="C221">
+        <v>0.1431</v>
+      </c>
+    </row>
+    <row r="222" spans="3:3">
+      <c r="C222">
+        <v>0.142669</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3">
+      <c r="C223">
+        <v>0.142248</v>
+      </c>
+    </row>
+    <row r="224" spans="3:3">
+      <c r="C224">
+        <v>0.141821</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3">
+      <c r="C225">
+        <v>0.141396</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3">
+      <c r="C226">
+        <v>0.140985</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3">
+      <c r="C227">
+        <v>0.140556</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3">
+      <c r="C228">
+        <v>0.140139</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3">
+      <c r="C229">
+        <v>0.139881</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3">
+      <c r="C230">
+        <v>0.139483</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3">
+      <c r="C231">
+        <v>0.139069</v>
+      </c>
+    </row>
+    <row r="232" spans="3:3">
+      <c r="C232">
+        <v>0.138666</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3">
+      <c r="C233">
+        <v>0.138262</v>
+      </c>
+    </row>
+    <row r="234" spans="3:3">
+      <c r="C234">
+        <v>0.137858</v>
+      </c>
+    </row>
+    <row r="235" spans="3:3">
+      <c r="C235">
+        <v>0.137456</v>
+      </c>
+    </row>
+    <row r="236" spans="3:3">
+      <c r="C236">
+        <v>0.137054</v>
+      </c>
+    </row>
+    <row r="237" spans="3:3">
+      <c r="C237">
+        <v>0.136917</v>
+      </c>
+    </row>
+    <row r="238" spans="3:3">
+      <c r="C238">
+        <v>0.136522</v>
+      </c>
+    </row>
+    <row r="239" spans="3:3">
+      <c r="C239">
+        <v>0.13614</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3">
+      <c r="C240">
+        <v>0.135749</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3">
+      <c r="C241">
+        <v>0.135358</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3">
+      <c r="C242">
+        <v>0.134964</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3">
+      <c r="C243">
+        <v>0.134591</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3">
+      <c r="C244">
+        <v>0.134208</v>
+      </c>
+    </row>
+    <row r="245" spans="3:3">
+      <c r="C245">
+        <v>0.133826</v>
+      </c>
+    </row>
+    <row r="246" spans="3:3">
+      <c r="C246">
+        <v>0.133735</v>
+      </c>
+    </row>
+    <row r="247" spans="3:3">
+      <c r="C247">
+        <v>0.133354</v>
+      </c>
+    </row>
+    <row r="248" spans="3:3">
+      <c r="C248">
+        <v>0.132977</v>
+      </c>
+    </row>
+    <row r="249" spans="3:3">
+      <c r="C249">
+        <v>0.132613</v>
+      </c>
+    </row>
+    <row r="250" spans="3:3">
+      <c r="C250">
+        <v>0.132252</v>
+      </c>
+    </row>
+    <row r="251" spans="3:3">
+      <c r="C251">
+        <v>0.131882</v>
+      </c>
+    </row>
+    <row r="252" spans="3:3">
+      <c r="C252">
+        <v>0.131517</v>
+      </c>
+    </row>
+    <row r="253" spans="3:3">
+      <c r="C253">
+        <v>0.131148</v>
+      </c>
+    </row>
+    <row r="254" spans="3:3">
+      <c r="C254">
+        <v>0.130779</v>
+      </c>
+    </row>
+    <row r="255" spans="3:3">
+      <c r="C255">
+        <v>0.130826</v>
+      </c>
+    </row>
+    <row r="256" spans="3:3">
+      <c r="C256">
+        <v>0.130474</v>
+      </c>
+    </row>
+    <row r="257" spans="3:3">
+      <c r="C257">
+        <v>0.130126</v>
+      </c>
+    </row>
+    <row r="258" spans="3:3">
+      <c r="C258">
+        <v>0.129779</v>
+      </c>
+    </row>
+    <row r="259" spans="3:3">
+      <c r="C259">
+        <v>0.129425</v>
+      </c>
+    </row>
+    <row r="260" spans="3:3">
+      <c r="C260">
+        <v>0.129071</v>
+      </c>
+    </row>
+    <row r="261" spans="3:3">
+      <c r="C261">
+        <v>0.128719</v>
+      </c>
+    </row>
+    <row r="262" spans="3:3">
+      <c r="C262">
+        <v>0.128374</v>
+      </c>
+    </row>
+    <row r="263" spans="3:3">
+      <c r="C263">
+        <v>0.128332</v>
+      </c>
+    </row>
+    <row r="264" spans="3:3">
+      <c r="C264">
+        <v>0.127986</v>
+      </c>
+    </row>
+    <row r="265" spans="3:3">
+      <c r="C265">
+        <v>0.127658</v>
+      </c>
+    </row>
+    <row r="266" spans="3:3">
+      <c r="C266">
+        <v>0.127328</v>
+      </c>
+    </row>
+    <row r="267" spans="3:3">
+      <c r="C267">
+        <v>0.126994</v>
+      </c>
+    </row>
+    <row r="268" spans="3:3">
+      <c r="C268">
+        <v>0.126664</v>
+      </c>
+    </row>
+    <row r="269" spans="3:3">
+      <c r="C269">
+        <v>0.126335</v>
+      </c>
+    </row>
+    <row r="270" spans="3:3">
+      <c r="C270">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="271" spans="3:3">
+      <c r="C271">
+        <v>0.126003</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
-  <cols>
-    <col min="2" max="2" width="12.625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>